--- a/GradeDistributionsDB/Fall2014/Output/Fall2014 EL.xlsx
+++ b/GradeDistributionsDB/Fall2014/Output/Fall2014 EL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>Course</t>
   </si>
@@ -121,6 +121,18 @@
     <t>ELIC-300</t>
   </si>
   <si>
+    <t>CARRUTHERS S</t>
+  </si>
+  <si>
+    <t>20.00%</t>
+  </si>
+  <si>
+    <t>60.00%</t>
+  </si>
+  <si>
+    <t>10.00%</t>
+  </si>
+  <si>
     <t>PETERS R</t>
   </si>
   <si>
@@ -136,9 +148,6 @@
     <t>30.00%</t>
   </si>
   <si>
-    <t>20.00%</t>
-  </si>
-  <si>
     <t>PULAK S</t>
   </si>
   <si>
@@ -295,9 +304,6 @@
     <t>ELIL-300</t>
   </si>
   <si>
-    <t>CARRUTHERS S</t>
-  </si>
-  <si>
     <t>38.10%</t>
   </si>
   <si>
@@ -350,9 +356,6 @@
   </si>
   <si>
     <t>ELIR-200</t>
-  </si>
-  <si>
-    <t>10.00%</t>
   </si>
   <si>
     <t>HARPER K</t>
@@ -752,7 +755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,68 +975,68 @@
         <v>35</v>
       </c>
       <c r="C16" t="n">
-        <v>2.643</v>
+        <v>2.7</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" t="n">
-        <v>2.1</v>
+        <v>2.643</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="B18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" t="n">
-        <v>2.071</v>
+        <v>2.1</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" t="s">
         <v>36</v>
-      </c>
-      <c r="F18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1041,909 +1044,932 @@
         <v>44</v>
       </c>
       <c r="C19" t="n">
+        <v>2.071</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="n">
         <v>2.846</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>30</v>
       </c>
-      <c r="E19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" t="s">
         <v>32</v>
       </c>
-      <c r="G19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>46</v>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="n">
-        <v>3.643</v>
-      </c>
-      <c r="D22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" t="s">
-        <v>10</v>
+      <c r="A22" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="B23" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C23" t="n">
-        <v>3.412</v>
+        <v>3.643</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="B24" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C24" t="n">
-        <v>2.882</v>
+        <v>3.412</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.882</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" t="s">
         <v>22</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C26" t="n">
         <v>3.714</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.412</v>
+      </c>
+      <c r="D29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" t="s">
         <v>53</v>
       </c>
-      <c r="E25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" t="n">
-        <v>2.412</v>
-      </c>
-      <c r="D28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="B31" t="s">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" t="s">
         <v>27</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C32" t="n">
         <v>2.8105</v>
       </c>
-      <c r="D31" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="D32" t="s">
         <v>61</v>
       </c>
-      <c r="H31" t="s">
+      <c r="E32" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
+      <c r="F32" t="s">
         <v>63</v>
       </c>
+      <c r="G32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="B34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" t="n">
-        <v>2.917</v>
-      </c>
-      <c r="D34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" t="s">
-        <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" t="s">
-        <v>13</v>
+      <c r="A34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.917</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="B36" t="s">
         <v>14</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C36" t="n">
         <v>1.909</v>
       </c>
-      <c r="D35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" t="s">
-        <v>68</v>
-      </c>
-      <c r="H35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" t="s">
         <v>69</v>
       </c>
+      <c r="F36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="B38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" t="n">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="n">
         <v>2.545</v>
       </c>
-      <c r="D38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" t="s">
-        <v>72</v>
-      </c>
-      <c r="F38" t="s">
-        <v>73</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="D39" t="s">
         <v>74</v>
       </c>
-      <c r="H38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="s">
+      <c r="E39" t="s">
         <v>75</v>
       </c>
+      <c r="F39" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="B41" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" t="n">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" t="n">
         <v>2.4175</v>
       </c>
-      <c r="D41" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" t="s">
-        <v>78</v>
-      </c>
-      <c r="F41" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="D42" t="s">
         <v>80</v>
       </c>
-      <c r="H41" t="s">
+      <c r="E42" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
+      <c r="F42" t="s">
         <v>82</v>
       </c>
+      <c r="G42" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="B44" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" t="n">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="n">
         <v>2.846</v>
       </c>
-      <c r="D44" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" t="s">
-        <v>72</v>
-      </c>
-      <c r="F44" t="s">
-        <v>85</v>
-      </c>
-      <c r="G44" t="s">
-        <v>86</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="D45" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" t="s">
+      <c r="E45" t="s">
+        <v>75</v>
+      </c>
+      <c r="F45" t="s">
         <v>88</v>
       </c>
+      <c r="G45" t="s">
+        <v>89</v>
+      </c>
+      <c r="H45" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="B47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" t="n">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="n">
         <v>2.655</v>
       </c>
-      <c r="D47" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" t="s">
-        <v>89</v>
-      </c>
-      <c r="F47" t="s">
-        <v>90</v>
-      </c>
-      <c r="G47" t="s">
-        <v>91</v>
-      </c>
-      <c r="H47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
         <v>92</v>
       </c>
+      <c r="F48" t="s">
+        <v>93</v>
+      </c>
+      <c r="G48" t="s">
+        <v>94</v>
+      </c>
+      <c r="H48" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="B50" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" t="n">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" t="n">
         <v>2.677</v>
       </c>
-      <c r="D50" t="s">
-        <v>94</v>
-      </c>
-      <c r="E50" t="s">
-        <v>95</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="D51" t="s">
         <v>96</v>
       </c>
-      <c r="G50" t="s">
-        <v>95</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="E51" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
+      <c r="F51" t="s">
         <v>98</v>
       </c>
+      <c r="G51" t="s">
+        <v>97</v>
+      </c>
+      <c r="H51" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="B53" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" t="n">
-        <v>2.385</v>
-      </c>
-      <c r="D53" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" t="s">
-        <v>45</v>
-      </c>
-      <c r="F53" t="s">
-        <v>30</v>
-      </c>
-      <c r="G53" t="s">
-        <v>33</v>
-      </c>
-      <c r="H53" t="s">
-        <v>30</v>
+      <c r="A53" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="B54" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="C54" t="n">
+        <v>2.385</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="B55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" t="n">
         <v>1.9</v>
       </c>
-      <c r="D54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
         <v>17</v>
       </c>
-      <c r="F54" t="s">
-        <v>40</v>
-      </c>
-      <c r="G54" t="s">
-        <v>10</v>
-      </c>
-      <c r="H54" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" t="s">
-        <v>100</v>
+      <c r="F55" t="s">
+        <v>36</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="B57" t="s">
-        <v>83</v>
-      </c>
-      <c r="C57" t="n">
+      <c r="A57" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" t="n">
         <v>2.4505</v>
       </c>
-      <c r="D57" t="s">
-        <v>101</v>
-      </c>
-      <c r="E57" t="s">
-        <v>78</v>
-      </c>
-      <c r="F57" t="s">
-        <v>102</v>
-      </c>
-      <c r="G57" t="s">
-        <v>101</v>
-      </c>
-      <c r="H57" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" t="s">
+      <c r="D58" t="s">
         <v>103</v>
       </c>
+      <c r="E58" t="s">
+        <v>81</v>
+      </c>
+      <c r="F58" t="s">
+        <v>104</v>
+      </c>
+      <c r="G58" t="s">
+        <v>103</v>
+      </c>
+      <c r="H58" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="B60" t="s">
-        <v>41</v>
-      </c>
-      <c r="C60" t="n">
-        <v>2.909</v>
-      </c>
-      <c r="D60" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" t="s">
-        <v>104</v>
-      </c>
-      <c r="F60" t="s">
-        <v>66</v>
-      </c>
-      <c r="G60" t="s">
-        <v>10</v>
-      </c>
-      <c r="H60" t="s">
-        <v>10</v>
+      <c r="A60" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="B61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2.909</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>106</v>
+      </c>
+      <c r="F61" t="s">
+        <v>69</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="B62" t="s">
         <v>14</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C62" t="n">
         <v>1.643</v>
       </c>
-      <c r="D61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" t="s">
-        <v>37</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s">
+        <v>41</v>
+      </c>
+      <c r="F62" t="s">
         <v>16</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G62" t="s">
         <v>15</v>
       </c>
-      <c r="H61" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" t="s">
-        <v>105</v>
+      <c r="H62" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="B64" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2.484</v>
-      </c>
-      <c r="D64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" t="s">
-        <v>106</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="A64" t="s">
         <v>107</v>
-      </c>
-      <c r="G64" t="s">
-        <v>108</v>
-      </c>
-      <c r="H64" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="B65" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="C65" t="n">
-        <v>1.454</v>
+        <v>2.484</v>
       </c>
       <c r="D65" t="s">
         <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="F65" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="G65" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="H65" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="B66" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="C66" t="n">
+        <v>1.454</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>63</v>
+      </c>
+      <c r="F66" t="s">
+        <v>71</v>
+      </c>
+      <c r="G66" t="s">
+        <v>63</v>
+      </c>
+      <c r="H66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="B67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" t="n">
         <v>2.786</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>15</v>
       </c>
-      <c r="E66" t="s">
-        <v>36</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="E67" t="s">
+        <v>40</v>
+      </c>
+      <c r="F67" t="s">
         <v>15</v>
       </c>
-      <c r="G66" t="s">
-        <v>10</v>
-      </c>
-      <c r="H66" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" t="s">
-        <v>110</v>
+      <c r="G67" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="B69" t="s">
+      <c r="A69" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="B70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2.638</v>
+      </c>
+      <c r="D70" t="s">
+        <v>88</v>
+      </c>
+      <c r="E70" t="s">
+        <v>75</v>
+      </c>
+      <c r="F70" t="s">
         <v>76</v>
       </c>
-      <c r="C69" t="n">
-        <v>2.638</v>
-      </c>
-      <c r="D69" t="s">
-        <v>85</v>
-      </c>
-      <c r="E69" t="s">
-        <v>72</v>
-      </c>
-      <c r="F69" t="s">
-        <v>73</v>
-      </c>
-      <c r="G69" t="s">
-        <v>71</v>
-      </c>
-      <c r="H69" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" t="s">
-        <v>111</v>
+      <c r="G70" t="s">
+        <v>74</v>
+      </c>
+      <c r="H70" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="B72" t="s">
-        <v>99</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" t="s">
-        <v>17</v>
-      </c>
-      <c r="F72" t="s">
-        <v>112</v>
-      </c>
-      <c r="G72" t="s">
-        <v>40</v>
-      </c>
-      <c r="H72" t="s">
-        <v>40</v>
+      <c r="A72" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="B73" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C73" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="D73" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
         <v>17</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="H73" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="B74" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="C74" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D74" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E74" t="s">
         <v>17</v>
       </c>
       <c r="F74" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="H74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" t="s">
-        <v>114</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="B75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" t="s">
+        <v>38</v>
+      </c>
+      <c r="G75" t="s">
+        <v>38</v>
+      </c>
+      <c r="H75" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="B77" t="s">
-        <v>64</v>
-      </c>
-      <c r="C77" t="n">
-        <v>3.077</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="A77" t="s">
         <v>115</v>
-      </c>
-      <c r="E77" t="s">
-        <v>31</v>
-      </c>
-      <c r="F77" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" t="s">
-        <v>10</v>
-      </c>
-      <c r="H77" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="B78" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" t="n">
+        <v>3.077</v>
+      </c>
+      <c r="D78" t="s">
+        <v>116</v>
+      </c>
+      <c r="E78" t="s">
+        <v>31</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="B79" t="s">
         <v>9</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C79" t="n">
         <v>2.929</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D79" t="s">
         <v>16</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E79" t="s">
         <v>17</v>
       </c>
-      <c r="F78" t="s">
-        <v>43</v>
-      </c>
-      <c r="G78" t="s">
-        <v>10</v>
-      </c>
-      <c r="H78" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" t="s">
-        <v>116</v>
+      <c r="F79" t="s">
+        <v>46</v>
+      </c>
+      <c r="G79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="B81" t="s">
-        <v>44</v>
-      </c>
-      <c r="C81" t="n">
+      <c r="A81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="B82" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" t="n">
         <v>3.1</v>
       </c>
-      <c r="D81" t="s">
-        <v>58</v>
-      </c>
-      <c r="E81" t="s">
-        <v>117</v>
-      </c>
-      <c r="F81" t="s">
-        <v>62</v>
-      </c>
-      <c r="G81" t="s">
-        <v>10</v>
-      </c>
-      <c r="H81" t="s">
+      <c r="D82" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" t="s">
+      <c r="E82" t="s">
         <v>118</v>
       </c>
+      <c r="F82" t="s">
+        <v>65</v>
+      </c>
+      <c r="G82" t="s">
+        <v>10</v>
+      </c>
+      <c r="H82" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="B84" t="s">
-        <v>113</v>
-      </c>
-      <c r="C84" t="n">
-        <v>2.083</v>
-      </c>
-      <c r="D84" t="s">
-        <v>13</v>
-      </c>
-      <c r="E84" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" t="s">
-        <v>23</v>
-      </c>
-      <c r="G84" t="s">
-        <v>23</v>
-      </c>
-      <c r="H84" t="s">
-        <v>13</v>
+      <c r="A84" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="B85" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C85" t="n">
+        <v>2.083</v>
+      </c>
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" t="s">
+        <v>23</v>
+      </c>
+      <c r="G85" t="s">
+        <v>23</v>
+      </c>
+      <c r="H85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="B86" t="s">
+        <v>120</v>
+      </c>
+      <c r="C86" t="n">
         <v>2</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D86" t="s">
         <v>32</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E86" t="s">
         <v>30</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F86" t="s">
         <v>32</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G86" t="s">
         <v>29</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H86" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
-      <c r="A87" t="s">
-        <v>120</v>
-      </c>
-    </row>
     <row r="88" spans="1:8">
-      <c r="B88" t="s">
-        <v>64</v>
-      </c>
-      <c r="C88" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="D88" t="s">
-        <v>121</v>
-      </c>
-      <c r="E88" t="s">
-        <v>122</v>
-      </c>
-      <c r="F88" t="s">
-        <v>123</v>
-      </c>
-      <c r="G88" t="s">
-        <v>10</v>
-      </c>
-      <c r="H88" t="s">
+      <c r="A88" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="B89" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="C89" t="n">
-        <v>2.667</v>
+        <v>2.4</v>
       </c>
       <c r="D89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E89" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F89" t="s">
         <v>124</v>
       </c>
       <c r="G89" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="B90" t="s">
+        <v>120</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.667</v>
+      </c>
+      <c r="D90" t="s">
+        <v>125</v>
+      </c>
+      <c r="E90" t="s">
+        <v>126</v>
+      </c>
+      <c r="F90" t="s">
+        <v>125</v>
+      </c>
+      <c r="G90" t="s">
         <v>24</v>
       </c>
-      <c r="H89" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" t="s">
-        <v>126</v>
+      <c r="H90" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:8">
-      <c r="B92" t="s">
+      <c r="A92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="B93" t="s">
         <v>27</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C93" t="n">
         <v>2.842</v>
       </c>
-      <c r="D92" t="s">
-        <v>127</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="D93" t="s">
         <v>128</v>
       </c>
-      <c r="F92" t="s">
-        <v>127</v>
-      </c>
-      <c r="G92" t="s">
-        <v>10</v>
-      </c>
-      <c r="H92" t="s">
+      <c r="E93" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" t="s">
+      <c r="F93" t="s">
+        <v>128</v>
+      </c>
+      <c r="G93" t="s">
+        <v>10</v>
+      </c>
+      <c r="H93" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="B95" t="s">
-        <v>41</v>
-      </c>
-      <c r="C95" t="n">
+      <c r="A95" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="B96" t="s">
+        <v>44</v>
+      </c>
+      <c r="C96" t="n">
         <v>2.658</v>
       </c>
-      <c r="D95" t="s">
-        <v>131</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="D96" t="s">
         <v>132</v>
       </c>
-      <c r="F95" t="s">
+      <c r="E96" t="s">
         <v>133</v>
       </c>
-      <c r="G95" t="s">
-        <v>10</v>
-      </c>
-      <c r="H95" t="s">
-        <v>133</v>
+      <c r="F96" t="s">
+        <v>134</v>
+      </c>
+      <c r="G96" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Fall2014/Output/Fall2014 EL.xlsx
+++ b/GradeDistributionsDB/Fall2014/Output/Fall2014 EL.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>ELIC-100</t>
   </si>
   <si>
@@ -371,6 +374,9 @@
   </si>
   <si>
     <t>66.67%</t>
+  </si>
+  <si>
+    <t>5.71%</t>
   </si>
   <si>
     <t>ELIV-100</t>
@@ -456,12 +462,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -755,15 +760,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -788,1188 +793,1329 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>2.5</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>0.929</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
         <v>1.333</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
         <v>2.833</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" t="s">
         <v>10</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" t="s">
-        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>2.417</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
         <v>2.385</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="n">
         <v>2.308</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" t="n">
         <v>2.7</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="B17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" t="n">
         <v>2.643</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" t="n">
         <v>2.1</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" t="n">
         <v>2.071</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" t="n">
         <v>2.846</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="B23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" t="n">
         <v>3.643</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" t="n">
         <v>3.412</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" t="n">
         <v>2.882</v>
       </c>
       <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
         <v>54</v>
       </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" t="s">
-        <v>53</v>
-      </c>
       <c r="H25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="B26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" t="n">
         <v>3.714</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="B29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" t="n">
         <v>2.412</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" t="s">
         <v>59</v>
       </c>
-      <c r="F29" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" t="s">
-        <v>58</v>
-      </c>
       <c r="H29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32" t="n">
         <v>2.8105</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C35" t="n">
         <v>2.917</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C36" t="n">
         <v>1.909</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" t="s">
         <v>70</v>
       </c>
-      <c r="G36" t="s">
-        <v>71</v>
-      </c>
-      <c r="H36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="B39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C39" t="n">
         <v>2.545</v>
       </c>
       <c r="D39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="B42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C42" t="n">
         <v>2.4175</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C45" t="n">
         <v>2.846</v>
       </c>
       <c r="D45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" t="n">
         <v>2.655</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G48" t="s">
+        <v>95</v>
+      </c>
+      <c r="H48" t="s">
         <v>94</v>
       </c>
-      <c r="H48" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="B51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C51" t="n">
         <v>2.677</v>
       </c>
       <c r="D51" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F51" t="s">
+        <v>99</v>
+      </c>
+      <c r="G51" t="s">
         <v>98</v>
       </c>
-      <c r="G51" t="s">
-        <v>97</v>
-      </c>
       <c r="H51" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="B54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C54" t="n">
         <v>2.385</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H54" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="B55" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C55" t="n">
         <v>1.9</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H55" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C58" t="n">
         <v>2.4505</v>
       </c>
       <c r="D58" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F58" t="s">
+        <v>105</v>
+      </c>
+      <c r="G58" t="s">
         <v>104</v>
       </c>
-      <c r="G58" t="s">
-        <v>103</v>
-      </c>
       <c r="H58" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="B61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C61" t="n">
         <v>2.909</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F61" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H61" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="B62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C62" t="n">
         <v>1.643</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F62" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" t="s">
         <v>16</v>
       </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
       <c r="H62" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="B65" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C65" t="n">
         <v>2.484</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F65" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G65" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H65" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C66" t="n">
         <v>1.454</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F66" t="s">
+        <v>72</v>
+      </c>
+      <c r="G66" t="s">
+        <v>64</v>
+      </c>
+      <c r="H66" t="s">
         <v>71</v>
       </c>
-      <c r="G66" t="s">
-        <v>63</v>
-      </c>
-      <c r="H66" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="B67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C67" t="n">
         <v>2.786</v>
       </c>
       <c r="D67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H67" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="B70" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C70" t="n">
         <v>2.638</v>
       </c>
       <c r="D70" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E70" t="s">
+        <v>76</v>
+      </c>
+      <c r="F70" t="s">
+        <v>77</v>
+      </c>
+      <c r="G70" t="s">
         <v>75</v>
       </c>
-      <c r="F70" t="s">
-        <v>76</v>
-      </c>
-      <c r="G70" t="s">
-        <v>74</v>
-      </c>
       <c r="H70" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="B73" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C73" t="n">
         <v>1.9</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H73" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C74" t="n">
         <v>2.7</v>
       </c>
       <c r="D74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H74" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="B75" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C75" t="n">
         <v>2.6</v>
       </c>
       <c r="D75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H75" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C78" t="n">
         <v>3.077</v>
       </c>
       <c r="D78" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E78" t="s">
+        <v>32</v>
+      </c>
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" t="s">
         <v>31</v>
       </c>
-      <c r="F78" t="s">
+      <c r="I78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="B79" t="s">
         <v>10</v>
-      </c>
-      <c r="G78" t="s">
-        <v>10</v>
-      </c>
-      <c r="H78" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="B79" t="s">
-        <v>9</v>
       </c>
       <c r="C79" t="n">
         <v>2.929</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H79" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="B82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C82" t="n">
         <v>3.1</v>
       </c>
       <c r="D82" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E82" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F82" t="s">
+        <v>66</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" t="s">
         <v>65</v>
       </c>
-      <c r="G82" t="s">
-        <v>10</v>
-      </c>
-      <c r="H82" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="B85" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C85" t="n">
         <v>2.083</v>
       </c>
       <c r="D85" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" t="s">
         <v>13</v>
       </c>
-      <c r="E85" t="s">
-        <v>12</v>
-      </c>
       <c r="F85" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G85" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C86" t="n">
         <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E86" t="s">
+        <v>31</v>
+      </c>
+      <c r="F86" t="s">
+        <v>33</v>
+      </c>
+      <c r="G86" t="s">
         <v>30</v>
       </c>
-      <c r="F86" t="s">
-        <v>32</v>
-      </c>
-      <c r="G86" t="s">
-        <v>29</v>
-      </c>
       <c r="H86" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="B89" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C89" t="n">
         <v>2.4</v>
       </c>
       <c r="D89" t="s">
+        <v>124</v>
+      </c>
+      <c r="E89" t="s">
+        <v>125</v>
+      </c>
+      <c r="F89" t="s">
+        <v>126</v>
+      </c>
+      <c r="G89" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" t="s">
+        <v>124</v>
+      </c>
+      <c r="I89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="B90" t="s">
         <v>122</v>
-      </c>
-      <c r="E89" t="s">
-        <v>123</v>
-      </c>
-      <c r="F89" t="s">
-        <v>124</v>
-      </c>
-      <c r="G89" t="s">
-        <v>10</v>
-      </c>
-      <c r="H89" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="B90" t="s">
-        <v>120</v>
       </c>
       <c r="C90" t="n">
         <v>2.667</v>
       </c>
       <c r="D90" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E90" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F90" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G90" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H90" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="B93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C93" t="n">
         <v>2.842</v>
       </c>
       <c r="D93" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E93" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F93" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H93" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="B96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C96" t="n">
         <v>2.658</v>
       </c>
       <c r="D96" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E96" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F96" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H96" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="I96" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
